--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>0.4235526809466261</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.7898296796019721</v>
+        <v>1.652713177926435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>-0.5718076928962645</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>1.218009596270675</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>1.483328631749625</v>
+        <v>0.4618648366506939</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>0.3486139762225005</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.5544720893820188</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>1.009536760933671</v>
+        <v>-2.340608900318997</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>-0.1384957661262898</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.173294700162031</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>1.1299540917866</v>
+        <v>1.659950937631938</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>1.566479473280147</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>1.180518841971723</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>1.255685894995295</v>
+        <v>2.497560574935442</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.7307568962936939</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>0.9276272455014611</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>1.129954091786578</v>
+        <v>1.029202372425875</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.818818812164257</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>1.265990289415564</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>1.715659375508571</v>
+        <v>0.7004752402133052</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.9180054319587239</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>1.642047742738506</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.622239894125022</v>
+        <v>2.577405783391451</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>1.984684278296656</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.66194179127146</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.742838626590171</v>
+        <v>2.047428048848832</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>1.755995812646982</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>1.609733807897773</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>1.704593001969767</v>
+        <v>1.55296524673576</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>1.946965557828384</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>1.641178243814534</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>1.609625625599986</v>
+        <v>0.2326081529569146</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.06432145354225</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>1.183163144818633</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>0.309601741335408</v>
+        <v>-0.6993904531539141</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>1.361817904277696</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-3.662861831460751</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-2.569434565498196</v>
+        <v>1.656460003703519</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-4.352425014431304</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>0.1010915562932313</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>2.978571099672367</v>
+        <v>-0.9164352768978534</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>-1.761645650979182</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>5.793673192389748</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-0.4965892650700465</v>
+        <v>2.211960525313206</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>5.20787683103745</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-0.3788601787194756</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.1377972028989261</v>
+        <v>0.1996286546173343</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-0.9008525709169546</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>-0.01592365107300209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>0.05771202657300911</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>0.2738544794132824</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.9033454606159452</v>
+      <c r="E19">
+        <v>0.7861875694807674</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-0.9164352768978534</v>
+        <v>31.54369540926341</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>2.211960525313206</v>
+        <v>22.41808675646528</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>0.1996286546173343</v>
+        <v>4.121778551214828</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-0.01592365107300209</v>
+        <v>-0.9756765446553795</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>0.7861875694807674</v>
+        <v>0.7075860014263302</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>0.4235526809466261</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.652713177926435</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>-0.5718076928962645</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -457,7 +448,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>0.3486139762225005</v>
+        <v>0.348613976222456</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -474,7 +465,7 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>-0.1384957661262898</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -491,13 +482,13 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>1.566479473280147</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="D6">
         <v>2012</v>
       </c>
       <c r="E6">
-        <v>2.497560574935442</v>
+        <v>2.49756057493542</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,7 +499,7 @@
         <v>2012</v>
       </c>
       <c r="C7">
-        <v>0.7307568962936939</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="D7">
         <v>2013</v>
@@ -525,7 +516,7 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.818818812164257</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -559,13 +550,13 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1.984684278296656</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="D10">
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>2.047428048848832</v>
+        <v>2.047428048848809</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>1.55296524673576</v>
+        <v>1.552965246735782</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="E12">
-        <v>0.2326081529569146</v>
+        <v>0.232608152956959</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +601,7 @@
         <v>2018</v>
       </c>
       <c r="C13">
-        <v>1.06432145354225</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -627,7 +618,7 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>1.361817904277696</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="D14">
         <v>2020</v>
@@ -644,13 +635,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-4.352425014431304</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>31.54369540926341</v>
+        <v>31.54369540926345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>22.41808675646528</v>
+        <v>22.41808675646531</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,13 +686,13 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-0.9008525709169546</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="D18">
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>-0.9756765446553795</v>
+        <v>-0.9756765446554017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +703,7 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>0.2738544794132824</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="D19">
         <v>2025</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AVERAGE_1_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>0.7075860014263302</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>0.8976398032236155</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.6203510926954925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
